--- a/Mod_Korean/Lang/KR/Dialog/Drama/namamani.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/Drama/namamani.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -70,6 +70,9 @@
     <t xml:space="preserve">What is this place?</t>
   </si>
   <si>
+    <t xml:space="preserve">뭐지, 이곳은?</t>
+  </si>
+  <si>
     <t xml:space="preserve">inject</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t xml:space="preserve">About miscreations.</t>
   </si>
   <si>
+    <t xml:space="preserve">실패작에 대해</t>
+  </si>
+  <si>
     <t xml:space="preserve">choice/bye</t>
   </si>
   <si>
@@ -104,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">You’re carrying  a curious machine. Let me take a look.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이상한 기계를 대동하고 있군. 잠시 보여줘 봐.</t>
   </si>
   <si>
     <t xml:space="preserve">…やはりな。回路の設計が甘い。信号の遅延、電流の揺らぎ、クロック歯車の同期精度、どれを取っても限界設計だ。これでは演算機関の潜在能力を半分も引き出せていない。
@@ -116,6 +125,11 @@
 ...Interesting. I can’t say I dislike this kind of rough craftsmanship. You got a memory chip on you?</t>
   </si>
   <si>
+    <t xml:space="preserve">…역시나. 회로 설계가 어설퍼. 신호에 딜레이가 있고, 전류도 불안정하고, 클록 톱니바퀴의 싱크 정밀도도 그렇고, 어느 것 하나 한계에 다다르지 않은 게 없군. 이래서는 연산기관의 잠재력을 절반도 못 살린다.
+도파관 배치도 난잡하고, 소음 방지 메커니즘도 없는 거나 다름없어. 기판을 다시 짜면 간섭이 꽤 경감될 텐데… 흠, 제어부의 쓰기 작업도 최적화를 할 여지가 있군. 기억 톱니바퀴 관리도 동적으로 하게 하면 처리 효율이 단숨에 상승할 거다.
+…딱히 이런 조잡한 기계를 싫어하진 않아. 혹시 메모리 칩 가진 것 있나?</t>
+  </si>
+  <si>
     <t xml:space="preserve">miscreation_finish</t>
   </si>
   <si>
@@ -128,16 +142,25 @@
     <t xml:space="preserve">Hand over the memory chip.</t>
   </si>
   <si>
+    <t xml:space="preserve">메모리 칩을 넘긴다</t>
+  </si>
+  <si>
     <t xml:space="preserve">また次の機会に</t>
   </si>
   <si>
     <t xml:space="preserve">Maybe later.</t>
   </si>
   <si>
+    <t xml:space="preserve">다음 기회에</t>
+  </si>
+  <si>
     <t xml:space="preserve">失敗作？ 無能な技師の言い訳だ。</t>
   </si>
   <si>
     <t xml:space="preserve">A miscreation? That’s just an excuse from an incompetent engineer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">실패작? 그런 건 무능한 기술자나 하는 변명이지.</t>
   </si>
   <si>
     <t xml:space="preserve">sound</t>
@@ -166,6 +189,10 @@
 Hear that? The gears singing to each other—the heartbeat of a perfect machine.</t>
   </si>
   <si>
+    <t xml:space="preserve">…좋아, 이 정도면 됐다.
+톱니바퀴들이 서로를 칭송하는 듯한 소리. 완벽한 기계의 심장 고동이지.</t>
+  </si>
+  <si>
     <t xml:space="preserve">drop</t>
   </si>
   <si>
@@ -176,6 +203,9 @@
   </si>
   <si>
     <t xml:space="preserve">Here, take this old component I pulled out of it. Consider it a keepsake.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아 맞다, 이 녀석한테서 뜯어낸 오래된 부품을 네게 넘기지. 기념으로 갖고 있어.</t>
   </si>
   <si>
     <t xml:space="preserve">end</t>
@@ -188,7 +218,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -200,19 +230,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="128"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="128"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="128"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -220,6 +250,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -270,7 +307,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -279,8 +316,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -293,6 +334,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -495,13 +540,13 @@
   </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.85"/>
@@ -512,7 +557,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="7.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="60.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="53.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="46.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -549,7 +594,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -573,59 +618,65 @@
       <c r="I8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="J10" s="5" t="s">
         <v>21</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -633,41 +684,50 @@
         <v>3</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I25" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>29</v>
+      <c r="J25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -675,16 +735,19 @@
         <v>13</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -692,12 +755,12 @@
         <v>13</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -705,10 +768,13 @@
         <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -718,69 +784,75 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E38" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E39" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E40" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>45</v>
+      <c r="J41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E42" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I42" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I43" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
